--- a/calculoipcR_base2023/Resumen_Indices_2010_2023/2023/indxbase2023_7_2024.xlsx
+++ b/calculoipcR_base2023/Resumen_Indices_2010_2023/2023/indxbase2023_7_2024.xlsx
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79275.6069674832</v>
+        <v>79335.3685816757</v>
       </c>
       <c r="B2" t="n">
         <v>779.112495377751</v>
       </c>
       <c r="C2" t="n">
-        <v>101.751168718</v>
+        <v>101.827873448763</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>101.23718179348</v>
+        <v>101.331093663529</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>102.292468609657</v>
+        <v>102.292468543968</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>101.342311013431</v>
+        <v>101.326050053075</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>101.594858337336</v>
+        <v>101.444110867339</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>101.553054766096</v>
+        <v>101.557752009036</v>
       </c>
     </row>
     <row r="7">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>101.730283658346</v>
+        <v>101.916344192069</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>102.742802301391</v>
+        <v>102.740363258917</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>101.549672620309</v>
+        <v>102.027002979292</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>104.376900781029</v>
+        <v>104.356986666153</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>96.9781682650231</v>
+        <v>96.7076122253818</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>99.9799009445834</v>
+        <v>99.9753222993342</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>100.756316125162</v>
+        <v>100.799894664205</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>100.35871125476</v>
+        <v>100.044034434854</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>100.789877147194</v>
+        <v>100.584918105738</v>
       </c>
     </row>
     <row r="12">
@@ -641,7 +641,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>102.060247081925</v>
+        <v>103.703541504038</v>
       </c>
     </row>
     <row r="13">

--- a/calculoipcR_base2023/Resumen_Indices_2010_2023/2023/indxbase2023_7_2024.xlsx
+++ b/calculoipcR_base2023/Resumen_Indices_2010_2023/2023/indxbase2023_7_2024.xlsx
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79335.3685816757</v>
+        <v>79239.5666925005</v>
       </c>
       <c r="B2" t="n">
         <v>779.112495377751</v>
       </c>
       <c r="C2" t="n">
-        <v>101.827873448763</v>
+        <v>101.704910603547</v>
       </c>
     </row>
   </sheetData>
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>101.331093663529</v>
+        <v>101.22243769188</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>102.292468543968</v>
+        <v>102.390612074486</v>
       </c>
     </row>
     <row r="4">
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>101.326050053075</v>
+        <v>101.243998283906</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>101.444110867339</v>
+        <v>101.509207994288</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>101.557752009036</v>
+        <v>101.554977340286</v>
       </c>
     </row>
     <row r="7">
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>101.916344192069</v>
+        <v>101.730421479916</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>102.740363258917</v>
+        <v>102.483959872556</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>102.027002979292</v>
+        <v>101.530929831041</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>104.356986666153</v>
+        <v>104.415765128758</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>100.561078164516</v>
+        <v>100.559516621128</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>96.7076122253818</v>
+        <v>96.4090881149326</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>99.9753222993342</v>
+        <v>99.9914793920393</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>100.799894664205</v>
+        <v>100.754231977028</v>
       </c>
     </row>
     <row r="8">
@@ -609,7 +609,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>102.866607038399</v>
+        <v>102.872236495196</v>
       </c>
     </row>
     <row r="9">
@@ -617,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>100.321977764743</v>
+        <v>100.43184979814</v>
       </c>
     </row>
     <row r="10">
@@ -625,7 +625,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>100.044034434854</v>
+        <v>100.345035570504</v>
       </c>
     </row>
     <row r="11">
@@ -641,7 +641,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>103.703541504038</v>
+        <v>102.056571354245</v>
       </c>
     </row>
     <row r="13">
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>100.244020625566</v>
+        <v>100.234456672636</v>
       </c>
     </row>
   </sheetData>
